--- a/bom/جاروبرقی/C1W.xlsx
+++ b/bom/جاروبرقی/C1W.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,12 +576,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>برچسب بی اثر شفاف 5 سانتی</t>
+          <t>برچسب سایز 57*32</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>1909071998</t>
+          <t>1909070323</t>
         </is>
       </c>
     </row>
@@ -756,889 +756,911 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>جعبه لوازم جانبی</t>
+          <t>جاروبرقی ( C1 W ) سری Düsseldorf سفید</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>1502010178</t>
+          <t>1102010132</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>جعبه لوازم جانبی چاپ شده Dusseldorf</t>
+          <t>جعبه لوازم جانبی</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>1749570002</t>
+          <t>1502010178</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>چرخ بزرگ جارو</t>
+          <t>جعبه لوازم جانبی چاپ شده Dusseldorf</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>1749175014</t>
+          <t>1749570002</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>چرخ سیم جمع کن چپ  _ 02</t>
+          <t>چرخ بزرگ جارو</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>1749570004</t>
+          <t>1749175014</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>چرخ کوچک جارو</t>
+          <t>چرخ سیم جمع کن چپ  _ 02</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>1749175030</t>
+          <t>1749570004</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>چسب حرارتی 12 میلی متر</t>
+          <t>چرخ کوچک جارو</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>1330260067</t>
+          <t>1749175030</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>درب کیسه زباله سفید</t>
+          <t>درب جعبه لوازم جانبی</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>1719255056</t>
+          <t>1719285431</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>درب کیسه زباله سفید چاپ شده Dusseldorf</t>
+          <t>درب کیسه زباله سفید</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>1719255092</t>
+          <t>1719255056</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>درب کیسه زباله سفید خودرنگ</t>
+          <t>درب کیسه زباله سفید چاپ شده Dusseldorf</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>1719255067</t>
+          <t>1719255092</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>درپوش سوپاپ اطمینان</t>
+          <t>درب کیسه زباله سفید خودرنگ</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>1732065052</t>
+          <t>1719255067</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>دستگیره درب کیسه زباله سیلور</t>
+          <t>درپوش سوپاپ اطمینان</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>1737035009</t>
+          <t>1732065052</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>دستگیره درب کیسه زباله سیلور خودرنگ</t>
+          <t>دستگیره درب کیسه زباله سیلور</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>1737035008</t>
+          <t>1737035009</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>دکمه درب جعبه لوازم جانبی(چپ)</t>
+          <t>دستگیره درب کیسه زباله سیلور خودرنگ</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>1227155134</t>
+          <t>1737035008</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>رینگ برنزی بزرگ</t>
+          <t>دکمه درب جعبه لوازم جانبی(چپ)</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>1749350008</t>
+          <t>1227155134</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>رینگ برنزی کوچک</t>
+          <t>دکمه درب جعبه لوازم جانبی(راست)</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>1749350009</t>
+          <t>1227155135</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>رینگ مسی بزرگ</t>
+          <t>رینگ برنزی بزرگ</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>1749350006</t>
+          <t>1749350008</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>رینگ مسی کوچک</t>
+          <t>رینگ برنزی کوچک</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>1749350007</t>
+          <t>1749350009</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>سوپاپ اطمینان جاروبرقی</t>
+          <t>رینگ مسی بزرگ</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>1747055002</t>
+          <t>1749350006</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>ضمانتنامه غیر نصبی A4 پاکشوما</t>
+          <t>رینگ مسی کوچک</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>1909090156</t>
+          <t>1749350007</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>طلق روی درب فیلترطوسی تیره خود رنگ</t>
+          <t>سوپاپ اطمینان جاروبرقی</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>1910100083</t>
+          <t>1747055002</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>طلق روی درب فیلتر سیلور</t>
+          <t>ضمانتنامه غیر نصبی A4 پاکشوما</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>1910100084</t>
+          <t>1909090156</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>طلق روی درب  فیلتر سیلور چاپ شده Dusseldorf (مواد پلیمری)</t>
+          <t>طلق روی درب فیلترطوسی تیره خود رنگ</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>1749570001</t>
+          <t>1910100083</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>فرم اطلاعات تست محصول</t>
+          <t>طلق روی درب فیلتر سیلور</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>1906050002</t>
+          <t>1910100084</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>فریم جارو</t>
+          <t>طلق روی درب  فیلتر سیلور چاپ شده Dusseldorf (مواد پلیمری)</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>1740305029</t>
+          <t>1749570001</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>فنر دستگیره درب و پایه نگهدارنده کیسه زباله</t>
+          <t>فرم اطلاعات تست محصول</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>1721110001</t>
+          <t>1906050002</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>فنر سوپاپ</t>
+          <t>فریم جارو</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>1721070006</t>
+          <t>1740305029</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>فنر سیم جمع کن</t>
+          <t>فنر دستگیره درب و پایه نگهدارنده کیسه زباله</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>1721010004</t>
+          <t>1721110001</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>فنر کلید پاور</t>
+          <t>فنر سوپاپ</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>1721140005</t>
+          <t>1721070006</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>قاب پشت سفید</t>
+          <t>فنر سیم جمع کن</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>1717135084</t>
+          <t>1721010004</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>قاب پشت سفید خودرنگ</t>
+          <t>فنر کلید پاور</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>1717135094</t>
+          <t>1721140005</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>قاب جعبه لوازم جانبی</t>
+          <t>قاب پشت سفید</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>1717305114</t>
+          <t>1717135084</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>قاب روی فیلتر خروجی سفید</t>
+          <t>قاب پشت سفید خودرنگ</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>1717195048</t>
+          <t>1717135094</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>قاب روی فیلتر خروجی سفید خودرنگ</t>
+          <t>قاب جعبه لوازم جانبی</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>1717195053</t>
+          <t>1717305114</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>قاب روی موتور</t>
+          <t>قاب روی فیلتر خروجی سفید</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>1717035024</t>
+          <t>1717195048</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>قاب محافظ فنر</t>
+          <t>قاب روی فیلتر خروجی سفید خودرنگ</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>1717305113</t>
+          <t>1717195053</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>قاب مشبک روی فیلتر خروجی</t>
+          <t>قاب روی موتور</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>1717305111</t>
+          <t>1717035024</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>قاب نگهدارنده کابل</t>
+          <t>قاب محافظ فنر</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>1717305112</t>
+          <t>1717305113</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>قاب ولوم</t>
+          <t>قاب مشبک روی فیلتر خروجی</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>1717075002</t>
+          <t>1717305111</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>کابل برق مشکی (9M)</t>
+          <t>قاب نگهدارنده کابل</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>1210070085</t>
+          <t>1717305112</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>کارتن جاروبرقی دوسلدورف</t>
+          <t>قاب ولوم</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>1909050388</t>
+          <t>1717075002</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>کارتن محافظ بزرگ</t>
+          <t>کابل برق مشکی (9M)</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>1909050390</t>
+          <t>1210070085</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>کارت QR کد برند پاکشوما</t>
+          <t>کارتن جاروبرقی دوسلدورف</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>1909080295</t>
+          <t>1909050388</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>کاور فوم بسته بندی محصول 70 * 58</t>
+          <t>کارتن محافظ بزرگ</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>1749016518</t>
+          <t>1909050390</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>کاور نایلون شیرینگ  با عرض 75 سانتیمتر (ضخامت 70 میکرون)</t>
+          <t>کارت QR کد برند پاکشوما</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>1909040039</t>
+          <t>1909080295</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>کفی</t>
+          <t>کاور ضمانت نامه 30*20</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>1749375052</t>
+          <t>1749015987</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>کیسه یکبار مصرف جاروبرقی</t>
+          <t>کاور فوم بسته بندی محصول 70 * 58</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>1749185024</t>
+          <t>1749016518</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>لاستیک پشت موتور</t>
+          <t>کفی</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>1749016128</t>
+          <t>1749375052</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>لاستیک جلو موتور</t>
+          <t>کیسه یکبار مصرف جاروبرقی</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>1749016129</t>
+          <t>1749185024</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>لوله تلسکوپی</t>
+          <t>لاستیک پشت موتور</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>1728010019</t>
+          <t>1749016128</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>لیبل انرژی بزرگ جاروبرقی C1</t>
+          <t>لاستیک جلو موتور</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>1909072189</t>
+          <t>1749016129</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>لیبل انرژی کوچک جاروبرقی C1</t>
+          <t>لولای درب جعبه لوازم جانبی</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>1909072190</t>
+          <t>1749015424</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>مجموعه برد اصلی و تنظیم قدرت</t>
+          <t>لوله تلسکوپی</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>1502030001</t>
+          <t>1728010019</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>مجموعه برد و موتور جاروبرقی</t>
+          <t>لیبل انرژی بزرگ جاروبرقی C1</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>1502040016</t>
+          <t>1909072189</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>مجموعه جعبه لوازم جانبی</t>
+          <t>لیبل انرژی کوچک جاروبرقی C1</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>1502010183</t>
+          <t>1909072190</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>مجموعه چرخ جارو</t>
+          <t>لیبل مدل ابعاد 7 سانتی در 23 سانتی متر</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>1502010158</t>
+          <t>1909072162</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>مجموعه چرخ لاستیکی کوچک</t>
+          <t>مجموعه برد اصلی و تنظیم قدرت</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>1502010157</t>
+          <t>1502030001</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>مجموعه خرطومی</t>
+          <t>مجموعه برد و موتور جاروبرقی</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>1502010147</t>
+          <t>1502040016</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>مجموعه سوپاپ اطمینان</t>
+          <t>مجموعه جعبه لوازم جانبی</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>1502010159</t>
+          <t>1502010183</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>مجموعه سیم جمع کن</t>
+          <t>مجموعه چرخ جارو</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>1502010160</t>
+          <t>1502010158</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>مجموعه فریم لاستیکی جارو</t>
+          <t>مجموعه چرخ لاستیکی کوچک</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>1502010177</t>
+          <t>1502010157</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>مجموعه فیلتر خروجی</t>
+          <t>مجموعه خرطومی</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>1502010155</t>
+          <t>1502010147</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>مجموعه فیلتر ورودی</t>
+          <t>مجموعه سوپاپ اطمینان</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>1502010154</t>
+          <t>1502010159</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>مواد TPE-T2S.75A43GB</t>
+          <t>مجموعه سیم جمع کن</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>2308010028</t>
+          <t>1502010160</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>موتور</t>
+          <t>مجموعه فریم لاستیکی جارو</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>1208010184</t>
+          <t>1502010177</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>نازل کناره بلند</t>
+          <t>مجموعه فیلتر خروجی</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>1754015002</t>
+          <t>1502010155</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>نشانگر کیسه زباله</t>
+          <t>مجموعه فیلتر ورودی</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>1749015426</t>
+          <t>1502010154</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>نگهدارنده سیم جمع کن</t>
+          <t>موتور</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>1753125012</t>
+          <t>1208010184</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>نوار چسب شیشه ای (عرض 5 سانتمیتری)</t>
+          <t>نازل کناره بلند</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>1906080091</t>
+          <t>1754015002</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>نوار لاستیکی درب کیسه زباله (درزگیر)</t>
+          <t>نشانگر کیسه زباله</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>1749335030</t>
+          <t>1749015426</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>واشر تخت گالوانیزه نمره 18 ضخامت 1.5</t>
+          <t>نگهدارنده سیم جمع کن</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>1302010006</t>
+          <t>1753125012</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>ورق آلومینیوم هات استمپ</t>
+          <t>نوار لاستیکی درب کیسه زباله (درزگیر)</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>1603200002</t>
+          <t>1749335030</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>ولوم تنظیم قدرت</t>
+          <t>واشر تخت گالوانیزه نمره 18 ضخامت 1.5</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>1222020012</t>
+          <t>1302010006</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>ولوم تنظیم قدرت کروم</t>
+          <t>ولوم تنظیم قدرت</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>1222020013</t>
+          <t>1222020012</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
+          <t>ولوم تنظیم قدرت کروم</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>1222020013</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
           <t>‎چرخ سیم جمع کن راست _ 02</t>
         </is>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="B99" s="3" t="inlineStr">
         <is>
           <t>1749570003</t>
         </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>سایر</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
